--- a/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
+++ b/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94582064-9140-4E3A-AD3E-F63862745E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C08D56-515B-48B4-A17B-10EDB991925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2085" windowWidth="21915" windowHeight="11385" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -555,229 +555,74 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.05</v>
-      </c>
-      <c r="E3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="1">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="1">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.15</v>
-      </c>
-      <c r="E5">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="1">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="1">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0.05</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1"/>

--- a/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
+++ b/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C08D56-515B-48B4-A17B-10EDB991925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731F120-7111-4596-8694-3A3291969B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
+    <workbookView xWindow="6120" yWindow="1800" windowWidth="20085" windowHeight="11385" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$Q$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>m</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>b1</t>
+  </si>
+  <si>
+    <t>num_episodes</t>
+  </si>
+  <si>
+    <t>total_timesteps</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -466,7 +475,7 @@
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -509,13 +518,22 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -553,8 +571,17 @@
       <c r="N2" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
@@ -567,8 +594,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
@@ -582,7 +610,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
@@ -596,7 +624,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
@@ -610,7 +638,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -624,7 +652,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
@@ -638,7 +666,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -652,7 +680,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
@@ -666,7 +694,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
@@ -680,7 +708,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
@@ -694,7 +722,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
@@ -708,7 +736,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
@@ -722,7 +750,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
@@ -736,7 +764,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
@@ -905,8 +933,6 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -919,8 +945,6 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -932,76 +956,6 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
+++ b/ENVIRONMENT_FROM_SCRATCH/configurations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731F120-7111-4596-8694-3A3291969B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDF60B-0C61-40CF-903A-63B66365C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1800" windowWidth="20085" windowHeight="11385" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
